--- a/user_posts_art_and_sport_only_sport_filter.xlsx
+++ b/user_posts_art_and_sport_only_sport_filter.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuval\OneDrive\Documents\master\Second year\אפיון התנהגות אנושית מנתוני אינטרנט\reddit_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593C9CAC-3403-4625-A76A-2801CE695624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="608">
   <si>
     <t>User</t>
   </si>
@@ -61,9 +67,6 @@
     <t>Sport Created UTC</t>
   </si>
   <si>
-    <t>AutoModerator</t>
-  </si>
-  <si>
     <t>Borkton</t>
   </si>
   <si>
@@ -298,9 +301,6 @@
     <t>Tallm</t>
   </si>
   <si>
-    <t>1e7ecf6</t>
-  </si>
-  <si>
     <t>9b0w0q</t>
   </si>
   <si>
@@ -535,9 +535,6 @@
     <t>r875yc</t>
   </si>
   <si>
-    <t>[Weekly Critique and Self-Promotion Thread] Post Here If You'd Like to Share Your Writing</t>
-  </si>
-  <si>
     <t>Is CrowdContent legit?</t>
   </si>
   <si>
@@ -770,25 +767,6 @@
   </si>
   <si>
     <t>Theory created a vacuum</t>
-  </si>
-  <si>
-    <t>Your critique submission should be a top-level comment in the thread and should include:
-&amp;#x200B;
-\* Title
-\* Genre
-\* Word count
-\* Type of feedback desired (line-by-line edits, general impression, etc.)
-\* A link to the writing
-&amp;#x200B;
-Anyone who wants to critique the story should respond to the original writing comment. The post is set to contest mode, so the stories will appear in a random order, and child comments will only be seen by people who want to check them.
-&amp;#x200B;
-This post will be active for approximately one week.
-&amp;#x200B;
-For anyone using Google Drive for critique: Drive is one of the easiest ways to share and comment on work, but keep in mind all activity is tied to your Google account and may reveal personal information such as your full name. If you plan to use Google Drive as your critique platform, consider creating a separate account solely for sharing writing that does not have any connections to your real-life identity.
-&amp;#x200B;
-Be reasonable with expectations. Posting a short chapter or a quick excerpt will get you many more responses than posting a full work. Everyone's stamina varies, but generally speaking the more you keep it under 5,000 words the better off you'll be.
-&amp;#x200B;
-\*\*Users who are promoting their work can either use the same template as those seeking critique or structure their posts in whatever other way seems most appropriate. Feel free to provide links to external sites like Amazon, talk about new and exciting events in your writing career, or write whatever else might suit your fancy.\*\*</t>
   </si>
   <si>
     <t xml:space="preserve">They spelled "Massachusetts" wrong in a drop down menu and their "You have to have a pen name" thing gave me a bad vibe. </t>
@@ -1161,9 +1139,6 @@
     <t>Sculpture</t>
   </si>
   <si>
-    <t>18qhejs</t>
-  </si>
-  <si>
     <t>9x69dv</t>
   </si>
   <si>
@@ -1398,9 +1373,6 @@
     <t>rj9bod</t>
   </si>
   <si>
-    <t>The Post Christmas Dinner Rating Thread</t>
-  </si>
-  <si>
     <t>Can you assemble a team with players with the same name?</t>
   </si>
   <si>
@@ -1633,11 +1605,6 @@
   </si>
   <si>
     <t>Hexcore fin material</t>
-  </si>
-  <si>
-    <t>Share your Christmas dinner, wherever in the world you may be, for r/soccer to rate or trash.
-Cheese boards, desserts and other snacks are also accepted.
-**Pictures are heavily encouraged!**</t>
   </si>
   <si>
     <t>Inspired by the fact that Cincinatti Reds outfielder Billy Hamilton shares a name with the Hall of Fame outfielder for the Kansas City Cowboys, Philadelphia Phillies and Boston Beaneaters outfielder Billy Hamilton, I'm wondering if you could assemble a team consisting only of players with the same names.
@@ -2045,9 +2012,6 @@
     <t>Arrows</t>
   </si>
   <si>
-    <t>soccer</t>
-  </si>
-  <si>
     <t>baseball</t>
   </si>
   <si>
@@ -2126,11 +2090,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2207,13 +2171,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2251,7 +2223,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2285,6 +2257,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2319,9 +2292,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2494,14 +2468,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2548,3359 +2524,3318 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H2" s="2">
-        <v>45492.87530092592</v>
+        <v>43340.726736111108</v>
       </c>
       <c r="I2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="J2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="K2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M2" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="N2">
-        <v>486</v>
+        <v>14</v>
       </c>
       <c r="O2" s="2">
-        <v>45285.50160879629</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>43419.0471412037</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
-        <v>43340.72673611111</v>
+        <v>43288.565254629633</v>
       </c>
       <c r="I3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="J3" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="K3" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="M3" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="N3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
-        <v>43419.0471412037</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>43327.073148148149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H4" s="2">
-        <v>43288.56525462963</v>
+        <v>43794.16814814815</v>
       </c>
       <c r="I4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J4" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="K4" t="s">
-        <v>502</v>
+        <v>496</v>
+      </c>
+      <c r="L4" t="s">
+        <v>313</v>
       </c>
       <c r="M4" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O4" s="2">
-        <v>43327.07314814815</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>43889.164143518523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" t="s">
-        <v>255</v>
+        <v>174</v>
+      </c>
+      <c r="E5" t="s">
+        <v>301</v>
       </c>
       <c r="F5" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H5" s="2">
-        <v>43794.16814814815</v>
+        <v>43135.216145833343</v>
       </c>
       <c r="I5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="J5" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="K5" t="s">
-        <v>503</v>
-      </c>
-      <c r="L5" t="s">
-        <v>317</v>
+        <v>497</v>
       </c>
       <c r="M5" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="N5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O5" s="2">
-        <v>43889.16414351852</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>43276.080775462957</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>175</v>
+      </c>
+      <c r="D6" t="s">
+        <v>252</v>
       </c>
       <c r="E6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F6" t="s">
         <v>323</v>
       </c>
       <c r="G6">
+        <v>263</v>
+      </c>
+      <c r="H6" s="2">
+        <v>44407.736342592587</v>
+      </c>
+      <c r="I6" t="s">
+        <v>342</v>
+      </c>
+      <c r="J6" t="s">
+        <v>420</v>
+      </c>
+      <c r="K6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L6" t="s">
+        <v>313</v>
+      </c>
+      <c r="M6" t="s">
+        <v>585</v>
+      </c>
+      <c r="N6">
         <v>6</v>
       </c>
-      <c r="H6" s="2">
-        <v>43135.21614583334</v>
-      </c>
-      <c r="I6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J6" t="s">
-        <v>425</v>
-      </c>
-      <c r="K6" t="s">
-        <v>504</v>
-      </c>
-      <c r="M6" t="s">
-        <v>594</v>
-      </c>
-      <c r="N6">
-        <v>3</v>
-      </c>
       <c r="O6" s="2">
-        <v>43276.08077546296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>44572.9375462963</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D7" t="s">
-        <v>256</v>
-      </c>
-      <c r="E7" t="s">
-        <v>306</v>
+        <v>176</v>
       </c>
       <c r="F7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G7">
-        <v>263</v>
+        <v>4</v>
       </c>
       <c r="H7" s="2">
-        <v>44407.73634259259</v>
+        <v>43220.226666666669</v>
       </c>
       <c r="I7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="J7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="K7" t="s">
-        <v>505</v>
-      </c>
-      <c r="L7" t="s">
-        <v>317</v>
+        <v>499</v>
       </c>
       <c r="M7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="N7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O7" s="2">
-        <v>44572.9375462963</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>43253.802476851852</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>179</v>
+        <v>177</v>
+      </c>
+      <c r="D8" t="s">
+        <v>253</v>
       </c>
       <c r="F8" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>43220.22666666667</v>
+        <v>44014.997534722221</v>
       </c>
       <c r="I8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J8" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="K8" t="s">
-        <v>506</v>
+        <v>500</v>
+      </c>
+      <c r="L8" t="s">
+        <v>313</v>
       </c>
       <c r="M8" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>199</v>
       </c>
       <c r="O8" s="2">
-        <v>43253.80247685185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>44038.155787037038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D9" t="s">
-        <v>257</v>
+        <v>254</v>
+      </c>
+      <c r="E9" t="s">
+        <v>303</v>
       </c>
       <c r="F9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H9" s="2">
-        <v>44014.99753472222</v>
+        <v>43550.486018518517</v>
       </c>
       <c r="I9" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="J9" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="K9" t="s">
-        <v>507</v>
-      </c>
-      <c r="L9" t="s">
-        <v>317</v>
+        <v>501</v>
       </c>
       <c r="M9" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="N9">
-        <v>199</v>
+        <v>2</v>
       </c>
       <c r="O9" s="2">
-        <v>44038.15578703704</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>43997.890092592592</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E10" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F10" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H10" s="2">
-        <v>43550.48601851852</v>
+        <v>43112.637199074074</v>
       </c>
       <c r="I10" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="J10" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="K10" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="M10" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O10" s="2">
-        <v>43997.89009259259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>43205.890115740738</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D11" t="s">
-        <v>259</v>
+        <v>180</v>
       </c>
       <c r="E11" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F11" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H11" s="2">
-        <v>43112.63719907407</v>
+        <v>43632.202372685177</v>
       </c>
       <c r="I11" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J11" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="K11" t="s">
-        <v>509</v>
+        <v>503</v>
+      </c>
+      <c r="L11" t="s">
+        <v>572</v>
       </c>
       <c r="M11" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="N11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
-        <v>43205.89011574074</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>43822.5390162037</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>183</v>
+        <v>181</v>
+      </c>
+      <c r="D12" t="s">
+        <v>256</v>
       </c>
       <c r="E12" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F12" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H12" s="2">
-        <v>43632.20237268518</v>
+        <v>44972.638067129628</v>
       </c>
       <c r="I12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="J12" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="K12" t="s">
-        <v>510</v>
-      </c>
-      <c r="L12" t="s">
-        <v>579</v>
+        <v>504</v>
       </c>
       <c r="M12" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O12" s="2">
-        <v>43822.5390162037</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>44578.730543981481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D13" t="s">
-        <v>260</v>
-      </c>
-      <c r="E13" t="s">
-        <v>309</v>
+        <v>257</v>
       </c>
       <c r="F13" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1974</v>
       </c>
       <c r="H13" s="2">
-        <v>44972.63806712963</v>
+        <v>43500.793206018519</v>
       </c>
       <c r="I13" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="J13" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="K13" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="M13" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="O13" s="2">
-        <v>44578.73054398148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>43679.051840277767</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D14" t="s">
-        <v>261</v>
+        <v>258</v>
+      </c>
+      <c r="E14" t="s">
+        <v>303</v>
       </c>
       <c r="F14" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G14">
-        <v>1974</v>
+        <v>140</v>
       </c>
       <c r="H14" s="2">
-        <v>43500.79320601852</v>
+        <v>44682.428831018522</v>
       </c>
       <c r="I14" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="J14" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="K14" t="s">
-        <v>512</v>
+        <v>506</v>
+      </c>
+      <c r="L14" t="s">
+        <v>573</v>
       </c>
       <c r="M14" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="N14">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="O14" s="2">
-        <v>43679.05184027777</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>45333.424305555563</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>186</v>
-      </c>
-      <c r="D15" t="s">
-        <v>262</v>
+        <v>184</v>
       </c>
       <c r="E15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F15" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G15">
-        <v>140</v>
+        <v>1502</v>
       </c>
       <c r="H15" s="2">
-        <v>44682.42883101852</v>
+        <v>44042.59642361111</v>
       </c>
       <c r="I15" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="J15" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="K15" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="L15" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="M15" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="N15">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
-        <v>45333.42430555556</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>44190.665173611109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>187</v>
-      </c>
-      <c r="E16" t="s">
-        <v>310</v>
+        <v>185</v>
       </c>
       <c r="F16" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="G16">
-        <v>1502</v>
+        <v>5</v>
       </c>
       <c r="H16" s="2">
-        <v>44042.59642361111</v>
+        <v>43115.716504629629</v>
       </c>
       <c r="I16" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="J16" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="K16" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="L16" t="s">
-        <v>579</v>
+        <v>313</v>
       </c>
       <c r="M16" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16" s="2">
-        <v>44190.66517361111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>43271.531585648147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>188</v>
+        <v>186</v>
+      </c>
+      <c r="E17" t="s">
+        <v>307</v>
       </c>
       <c r="F17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="H17" s="2">
-        <v>43115.71650462963</v>
+        <v>44990.179675925923</v>
       </c>
       <c r="I17" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J17" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="K17" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="L17" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M17" t="s">
         <v>593</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O17" s="2">
-        <v>43271.53158564815</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>45004.777094907397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>189</v>
-      </c>
-      <c r="E18" t="s">
-        <v>311</v>
+        <v>187</v>
+      </c>
+      <c r="D18" t="s">
+        <v>259</v>
       </c>
       <c r="F18" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G18">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="H18" s="2">
-        <v>44990.17967592592</v>
+        <v>45031.488738425927</v>
       </c>
       <c r="I18" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="J18" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="K18" t="s">
-        <v>516</v>
-      </c>
-      <c r="L18" t="s">
-        <v>317</v>
+        <v>510</v>
       </c>
       <c r="M18" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="N18">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="O18" s="2">
-        <v>45004.7770949074</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>45131.641516203701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D19" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F19" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H19" s="2">
-        <v>45031.48873842593</v>
+        <v>43529.586342592593</v>
       </c>
       <c r="I19" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="J19" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="K19" t="s">
-        <v>517</v>
+        <v>511</v>
+      </c>
+      <c r="L19" t="s">
+        <v>574</v>
       </c>
       <c r="M19" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="N19">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="O19" s="2">
-        <v>45131.6415162037</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>43577.538344907407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>191</v>
-      </c>
-      <c r="D20" t="s">
-        <v>264</v>
+        <v>189</v>
       </c>
       <c r="F20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G20">
         <v>3</v>
       </c>
       <c r="H20" s="2">
-        <v>43529.58634259259</v>
+        <v>44438.87804398148</v>
       </c>
       <c r="I20" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="J20" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="K20" t="s">
-        <v>518</v>
-      </c>
-      <c r="L20" t="s">
-        <v>581</v>
+        <v>512</v>
       </c>
       <c r="M20" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="O20" s="2">
-        <v>43577.53834490741</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>44528.802303240736</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>192</v>
+        <v>190</v>
+      </c>
+      <c r="D21" t="s">
+        <v>261</v>
       </c>
       <c r="F21" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H21" s="2">
-        <v>44438.87804398148</v>
+        <v>44230.050393518519</v>
       </c>
       <c r="I21" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="J21" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="K21" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="M21" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="N21">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="O21" s="2">
-        <v>44528.80230324074</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>44203.183680555558</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D22" t="s">
-        <v>265</v>
+        <v>191</v>
+      </c>
+      <c r="E22" t="s">
+        <v>308</v>
       </c>
       <c r="F22" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22" s="2">
-        <v>44230.05039351852</v>
+        <v>44838.414467592593</v>
       </c>
       <c r="I22" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="J22" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="K22" t="s">
-        <v>520</v>
+        <v>514</v>
+      </c>
+      <c r="L22" t="s">
+        <v>303</v>
       </c>
       <c r="M22" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="N22">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="O22" s="2">
-        <v>44203.18368055556</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>44891.839803240742</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>194</v>
-      </c>
-      <c r="E23" t="s">
-        <v>312</v>
+        <v>192</v>
       </c>
       <c r="F23" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H23" s="2">
-        <v>44838.41446759259</v>
+        <v>45507.058333333327</v>
       </c>
       <c r="I23" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J23" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="K23" t="s">
-        <v>521</v>
-      </c>
-      <c r="L23" t="s">
-        <v>307</v>
+        <v>515</v>
       </c>
       <c r="M23" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O23" s="2">
-        <v>44891.83980324074</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>45519.811493055553</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>195</v>
+        <v>193</v>
+      </c>
+      <c r="D24" t="s">
+        <v>262</v>
       </c>
       <c r="F24" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G24">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="H24" s="2">
-        <v>45507.05833333333</v>
+        <v>45078.69425925926</v>
       </c>
       <c r="I24" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="J24" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="K24" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="M24" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="N24">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O24" s="2">
-        <v>45519.81149305555</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>45248.742604166669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D25" t="s">
-        <v>266</v>
+        <v>263</v>
+      </c>
+      <c r="E25" t="s">
+        <v>303</v>
       </c>
       <c r="F25" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G25">
-        <v>56</v>
+        <v>185</v>
       </c>
       <c r="H25" s="2">
-        <v>45078.69425925926</v>
+        <v>44739.56863425926</v>
       </c>
       <c r="I25" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="J25" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="K25" t="s">
-        <v>523</v>
+        <v>517</v>
+      </c>
+      <c r="L25" t="s">
+        <v>303</v>
       </c>
       <c r="M25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="N25">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="O25" s="2">
-        <v>45248.74260416667</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>44856.552534722221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D26" t="s">
-        <v>267</v>
-      </c>
-      <c r="E26" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="F26" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G26">
-        <v>185</v>
+        <v>2</v>
       </c>
       <c r="H26" s="2">
-        <v>44739.56863425926</v>
+        <v>43979.83216435185</v>
       </c>
       <c r="I26" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="J26" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="K26" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="L26" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="M26" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="N26">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="O26" s="2">
-        <v>44856.55253472222</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>44043.765243055554</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D27" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F27" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="H27" s="2">
-        <v>43979.83216435185</v>
+        <v>45196.664606481478</v>
       </c>
       <c r="I27" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="J27" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="K27" t="s">
-        <v>525</v>
-      </c>
-      <c r="L27" t="s">
-        <v>317</v>
+        <v>519</v>
       </c>
       <c r="M27" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="N27">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="O27" s="2">
-        <v>44043.76524305555</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>45542.106805555559</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D28" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F28" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G28">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="H28" s="2">
-        <v>45196.66460648148</v>
+        <v>44467.511122685188</v>
       </c>
       <c r="I28" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="J28" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="K28" t="s">
-        <v>526</v>
+        <v>520</v>
+      </c>
+      <c r="L28" t="s">
+        <v>313</v>
       </c>
       <c r="M28" t="s">
-        <v>606</v>
+        <v>585</v>
       </c>
       <c r="N28">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="O28" s="2">
-        <v>45542.10680555556</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>44567.523240740738</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D29" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F29" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H29" s="2">
-        <v>44467.51112268519</v>
+        <v>44646.141388888893</v>
       </c>
       <c r="I29" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="J29" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="K29" t="s">
-        <v>527</v>
-      </c>
-      <c r="L29" t="s">
-        <v>317</v>
+        <v>521</v>
       </c>
       <c r="M29" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="N29">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O29" s="2">
-        <v>44567.52324074074</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>44646.220138888893</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s">
-        <v>201</v>
-      </c>
-      <c r="D30" t="s">
-        <v>271</v>
+        <v>199</v>
+      </c>
+      <c r="E30" t="s">
+        <v>309</v>
       </c>
       <c r="F30" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G30">
-        <v>4</v>
+        <v>730</v>
       </c>
       <c r="H30" s="2">
-        <v>44646.14138888889</v>
+        <v>44899.634826388887</v>
       </c>
       <c r="I30" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="J30" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K30" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="M30" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="N30">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O30" s="2">
-        <v>44646.22013888889</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>45007.493900462963</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E31" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F31" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G31">
-        <v>730</v>
+        <v>49</v>
       </c>
       <c r="H31" s="2">
-        <v>44899.63482638889</v>
+        <v>43743.530995370369</v>
       </c>
       <c r="I31" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="J31" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="K31" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M31" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="N31">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O31" s="2">
-        <v>45007.49390046296</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>44201.762812499997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>203</v>
-      </c>
-      <c r="E32" t="s">
-        <v>314</v>
+        <v>201</v>
+      </c>
+      <c r="D32" t="s">
+        <v>268</v>
       </c>
       <c r="F32" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="G32">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="H32" s="2">
-        <v>43743.53099537037</v>
+        <v>43950.884618055563</v>
       </c>
       <c r="I32" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J32" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="K32" t="s">
-        <v>530</v>
+        <v>524</v>
+      </c>
+      <c r="L32" t="s">
+        <v>575</v>
       </c>
       <c r="M32" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O32" s="2">
-        <v>44201.7628125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>43971.775416666656</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C33" t="s">
-        <v>204</v>
-      </c>
-      <c r="D33" t="s">
-        <v>272</v>
+        <v>202</v>
+      </c>
+      <c r="E33" t="s">
+        <v>311</v>
       </c>
       <c r="F33" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G33">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="H33" s="2">
-        <v>43950.88461805556</v>
+        <v>45036.588587962957</v>
       </c>
       <c r="I33" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="J33" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="K33" t="s">
-        <v>531</v>
-      </c>
-      <c r="L33" t="s">
-        <v>582</v>
+        <v>525</v>
       </c>
       <c r="M33" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="N33">
         <v>2</v>
       </c>
       <c r="O33" s="2">
-        <v>43971.77541666666</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>45149.72861111111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>205</v>
-      </c>
-      <c r="E34" t="s">
-        <v>315</v>
+        <v>203</v>
       </c>
       <c r="F34" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G34">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="H34" s="2">
-        <v>45036.58858796296</v>
+        <v>43576.866666666669</v>
       </c>
       <c r="I34" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="J34" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="K34" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="M34" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="N34">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O34" s="2">
-        <v>45149.72861111111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>43748.132696759261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C35" t="s">
-        <v>206</v>
+        <v>204</v>
+      </c>
+      <c r="D35" t="s">
+        <v>269</v>
       </c>
       <c r="F35" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="H35" s="2">
-        <v>43576.86666666667</v>
+        <v>44839.693611111114</v>
       </c>
       <c r="I35" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="J35" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="K35" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="M35" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="N35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O35" s="2">
-        <v>43748.13269675926</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>44884.01494212963</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C36" t="s">
-        <v>207</v>
-      </c>
-      <c r="D36" t="s">
-        <v>273</v>
+        <v>205</v>
+      </c>
+      <c r="E36" t="s">
+        <v>312</v>
       </c>
       <c r="F36" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G36">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H36" s="2">
-        <v>44839.69361111111</v>
+        <v>44963.989374999997</v>
       </c>
       <c r="I36" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="J36" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="K36" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="M36" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="N36">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O36" s="2">
-        <v>44884.01494212963</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>45096.026875000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C37" t="s">
-        <v>208</v>
+        <v>206</v>
+      </c>
+      <c r="D37" t="s">
+        <v>270</v>
       </c>
       <c r="E37" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F37" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G37">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="H37" s="2">
-        <v>44963.989375</v>
+        <v>44251.860833333332</v>
       </c>
       <c r="I37" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J37" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="K37" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="M37" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="N37">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O37" s="2">
-        <v>45096.026875</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>44467.766284722216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C38" t="s">
-        <v>209</v>
-      </c>
-      <c r="D38" t="s">
-        <v>274</v>
-      </c>
-      <c r="E38" t="s">
-        <v>317</v>
+        <v>207</v>
       </c>
       <c r="F38" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>196</v>
       </c>
       <c r="H38" s="2">
-        <v>44251.86083333333</v>
+        <v>43501.737835648149</v>
       </c>
       <c r="I38" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="J38" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="K38" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="M38" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="O38" s="2">
-        <v>44467.76628472222</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>43616.308229166672</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C39" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="D39" t="s">
+        <v>271</v>
       </c>
       <c r="F39" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="G39">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="H39" s="2">
-        <v>43501.73783564815</v>
+        <v>43774.796585648153</v>
       </c>
       <c r="I39" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="J39" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="K39" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="M39" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="N39">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="O39" s="2">
-        <v>43616.30822916667</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>43803.195555555547</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C40" t="s">
-        <v>211</v>
-      </c>
-      <c r="D40" t="s">
-        <v>275</v>
+        <v>209</v>
+      </c>
+      <c r="E40" t="s">
+        <v>310</v>
       </c>
       <c r="F40" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="G40">
+        <v>32</v>
+      </c>
+      <c r="H40" s="2">
+        <v>43550.563506944447</v>
+      </c>
+      <c r="I40" t="s">
+        <v>376</v>
+      </c>
+      <c r="J40" t="s">
+        <v>454</v>
+      </c>
+      <c r="K40" t="s">
+        <v>532</v>
+      </c>
+      <c r="L40" t="s">
+        <v>313</v>
+      </c>
+      <c r="M40" t="s">
+        <v>585</v>
+      </c>
+      <c r="N40">
         <v>0</v>
       </c>
-      <c r="H40" s="2">
-        <v>43774.79658564815</v>
-      </c>
-      <c r="I40" t="s">
-        <v>380</v>
-      </c>
-      <c r="J40" t="s">
-        <v>459</v>
-      </c>
-      <c r="K40" t="s">
-        <v>538</v>
-      </c>
-      <c r="M40" t="s">
-        <v>610</v>
-      </c>
-      <c r="N40">
-        <v>12</v>
-      </c>
       <c r="O40" s="2">
-        <v>43803.19555555555</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>43604.960729166669</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E41" t="s">
-        <v>314</v>
+        <v>210</v>
       </c>
       <c r="F41" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G41">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H41" s="2">
-        <v>43550.56350694445</v>
+        <v>43545.931250000001</v>
       </c>
       <c r="I41" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="J41" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="K41" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="L41" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M41" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41" s="2">
-        <v>43604.96072916667</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>43649.787361111114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C42" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+      <c r="D42" t="s">
+        <v>272</v>
+      </c>
+      <c r="E42" t="s">
+        <v>314</v>
       </c>
       <c r="F42" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G42">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="H42" s="2">
-        <v>43545.93125</v>
+        <v>45263.027048611111</v>
       </c>
       <c r="I42" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="J42" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="K42" t="s">
-        <v>540</v>
-      </c>
-      <c r="L42" t="s">
-        <v>317</v>
+        <v>534</v>
       </c>
       <c r="M42" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" s="2">
-        <v>43649.78736111111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>45338.081967592603</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D43" t="s">
-        <v>276</v>
-      </c>
-      <c r="E43" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
       <c r="F43" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="G43">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H43" s="2">
-        <v>45263.02704861111</v>
+        <v>45206.624490740738</v>
       </c>
       <c r="I43" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="J43" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="K43" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="M43" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="O43" s="2">
-        <v>45338.0819675926</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>45408.602662037039</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D44" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F44" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="2">
-        <v>45206.62449074074</v>
+        <v>43468.782372685193</v>
       </c>
       <c r="I44" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="J44" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="K44" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="M44" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="N44">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="O44" s="2">
-        <v>45408.60266203704</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <v>43617.763564814813</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C45" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D45" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F45" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H45" s="2">
-        <v>43468.78237268519</v>
+        <v>45009.644965277781</v>
       </c>
       <c r="I45" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="J45" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="K45" t="s">
-        <v>543</v>
+        <v>537</v>
+      </c>
+      <c r="L45" t="s">
+        <v>576</v>
       </c>
       <c r="M45" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="N45">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O45" s="2">
-        <v>43617.76356481481</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>45010.704895833333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D46" t="s">
-        <v>279</v>
+        <v>276</v>
+      </c>
+      <c r="E46" t="s">
+        <v>303</v>
       </c>
       <c r="F46" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="G46">
         <v>3</v>
       </c>
       <c r="H46" s="2">
-        <v>45009.64496527778</v>
+        <v>43294.91684027778</v>
       </c>
       <c r="I46" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="J46" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="K46" t="s">
-        <v>544</v>
-      </c>
-      <c r="L46" t="s">
-        <v>583</v>
+        <v>538</v>
       </c>
       <c r="M46" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="N46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O46" s="2">
-        <v>45010.70489583333</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>43424.974699074082</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C47" t="s">
-        <v>218</v>
-      </c>
-      <c r="D47" t="s">
-        <v>280</v>
-      </c>
-      <c r="E47" t="s">
-        <v>307</v>
+        <v>216</v>
       </c>
       <c r="F47" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H47" s="2">
-        <v>43294.91684027778</v>
+        <v>43799.924618055556</v>
       </c>
       <c r="I47" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J47" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="K47" t="s">
-        <v>545</v>
+        <v>539</v>
+      </c>
+      <c r="L47" t="s">
+        <v>575</v>
       </c>
       <c r="M47" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="N47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O47" s="2">
-        <v>43424.97469907408</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>43871.865127314813</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C48" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="D48" t="s">
+        <v>277</v>
       </c>
       <c r="F48" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G48">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H48" s="2">
-        <v>43799.92461805556</v>
+        <v>43417.348240740743</v>
       </c>
       <c r="I48" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="J48" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="K48" t="s">
-        <v>546</v>
-      </c>
-      <c r="L48" t="s">
-        <v>582</v>
+        <v>540</v>
       </c>
       <c r="M48" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="O48" s="2">
-        <v>43871.86512731481</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>43212.084629629629</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C49" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D49" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F49" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G49">
+        <v>2128</v>
+      </c>
+      <c r="H49" s="2">
+        <v>43428.838449074072</v>
+      </c>
+      <c r="I49" t="s">
+        <v>385</v>
+      </c>
+      <c r="J49" t="s">
+        <v>463</v>
+      </c>
+      <c r="K49" t="s">
+        <v>541</v>
+      </c>
+      <c r="M49" t="s">
+        <v>586</v>
+      </c>
+      <c r="N49">
         <v>0</v>
       </c>
-      <c r="H49" s="2">
-        <v>43417.34824074074</v>
-      </c>
-      <c r="I49" t="s">
-        <v>389</v>
-      </c>
-      <c r="J49" t="s">
-        <v>468</v>
-      </c>
-      <c r="K49" t="s">
-        <v>547</v>
-      </c>
-      <c r="M49" t="s">
-        <v>594</v>
-      </c>
-      <c r="N49">
-        <v>68</v>
-      </c>
       <c r="O49" s="2">
-        <v>43212.08462962963</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+        <v>43570.828564814823</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C50" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D50" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F50" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G50">
-        <v>2128</v>
+        <v>3</v>
       </c>
       <c r="H50" s="2">
-        <v>43428.83844907407</v>
+        <v>44745.56863425926</v>
       </c>
       <c r="I50" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="J50" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="K50" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="M50" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O50" s="2">
-        <v>43570.82856481482</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+        <v>45230.553622685176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C51" t="s">
-        <v>222</v>
-      </c>
-      <c r="D51" t="s">
-        <v>283</v>
+        <v>220</v>
+      </c>
+      <c r="E51" t="s">
+        <v>304</v>
       </c>
       <c r="F51" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>650</v>
       </c>
       <c r="H51" s="2">
-        <v>44745.56863425926</v>
+        <v>43610.596122685187</v>
       </c>
       <c r="I51" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="J51" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="K51" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="M51" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="N51">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O51" s="2">
-        <v>45230.55362268518</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+        <v>43673.892847222232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C52" t="s">
-        <v>223</v>
+        <v>221</v>
+      </c>
+      <c r="D52" t="s">
+        <v>280</v>
       </c>
       <c r="E52" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F52" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G52">
-        <v>650</v>
+        <v>1</v>
       </c>
       <c r="H52" s="2">
-        <v>43610.59612268519</v>
+        <v>44247.743310185193</v>
       </c>
       <c r="I52" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J52" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="K52" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="M52" t="s">
-        <v>612</v>
+        <v>591</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O52" s="2">
-        <v>43673.89284722223</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+        <v>44348.672974537039</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C53" t="s">
-        <v>224</v>
-      </c>
-      <c r="D53" t="s">
-        <v>284</v>
-      </c>
-      <c r="E53" t="s">
-        <v>317</v>
+        <v>222</v>
       </c>
       <c r="F53" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H53" s="2">
-        <v>44247.74331018519</v>
+        <v>45154.110891203702</v>
       </c>
       <c r="I53" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="J53" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="K53" t="s">
-        <v>551</v>
+        <v>545</v>
+      </c>
+      <c r="L53" t="s">
+        <v>577</v>
       </c>
       <c r="M53" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="N53">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O53" s="2">
-        <v>44348.67297453704</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
+        <v>45333.636307870373</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C54" t="s">
-        <v>225</v>
+        <v>223</v>
+      </c>
+      <c r="D54" t="s">
+        <v>281</v>
       </c>
       <c r="F54" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="G54">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="H54" s="2">
-        <v>45154.1108912037</v>
+        <v>45165.538287037038</v>
       </c>
       <c r="I54" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="J54" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="K54" t="s">
-        <v>552</v>
-      </c>
-      <c r="L54" t="s">
-        <v>584</v>
+        <v>546</v>
       </c>
       <c r="M54" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" s="2">
-        <v>45333.63630787037</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+        <v>45310.905949074076</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C55" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D55" t="s">
-        <v>285</v>
+        <v>282</v>
+      </c>
+      <c r="E55" t="s">
+        <v>303</v>
       </c>
       <c r="F55" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G55">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="H55" s="2">
-        <v>45165.53828703704</v>
+        <v>44148.987569444442</v>
       </c>
       <c r="I55" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J55" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="K55" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="M55" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O55" s="2">
-        <v>45310.90594907408</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
+        <v>44222.708020833343</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C56" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D56" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E56" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F56" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="G56">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H56" s="2">
-        <v>44148.98756944444</v>
+        <v>43667.283622685187</v>
       </c>
       <c r="I56" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="J56" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="K56" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="M56" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="N56">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O56" s="2">
-        <v>44222.70802083334</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
+        <v>43763.107060185182</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s">
-        <v>228</v>
-      </c>
-      <c r="D57" t="s">
-        <v>287</v>
+        <v>226</v>
       </c>
       <c r="E57" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F57" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>167</v>
       </c>
       <c r="H57" s="2">
-        <v>43667.28362268519</v>
+        <v>44129.266192129631</v>
       </c>
       <c r="I57" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J57" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="K57" t="s">
-        <v>555</v>
+        <v>549</v>
+      </c>
+      <c r="L57" t="s">
+        <v>303</v>
       </c>
       <c r="M57" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="N57">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="O57" s="2">
-        <v>43763.10706018518</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+        <v>44192.71912037037</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C58" t="s">
-        <v>229</v>
+        <v>227</v>
+      </c>
+      <c r="D58" t="s">
+        <v>284</v>
       </c>
       <c r="E58" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F58" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="G58">
-        <v>167</v>
+        <v>57</v>
       </c>
       <c r="H58" s="2">
-        <v>44129.26619212963</v>
+        <v>44427.566458333327</v>
       </c>
       <c r="I58" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="J58" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="K58" t="s">
-        <v>556</v>
-      </c>
-      <c r="L58" t="s">
-        <v>307</v>
+        <v>550</v>
       </c>
       <c r="M58" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="N58">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="O58" s="2">
-        <v>44192.71912037037</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+        <v>44432.395173611112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C59" t="s">
-        <v>230</v>
-      </c>
-      <c r="D59" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="E59" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F59" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G59">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="H59" s="2">
-        <v>44427.56645833333</v>
+        <v>43659.35361111111</v>
       </c>
       <c r="I59" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="J59" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="K59" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="M59" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="N59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O59" s="2">
-        <v>44432.39517361111</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+        <v>44276.711562500001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C60" t="s">
-        <v>231</v>
-      </c>
-      <c r="E60" t="s">
-        <v>320</v>
+        <v>229</v>
+      </c>
+      <c r="D60" t="s">
+        <v>285</v>
       </c>
       <c r="F60" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="G60">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="H60" s="2">
-        <v>43659.35361111111</v>
+        <v>44344.70616898148</v>
       </c>
       <c r="I60" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="J60" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="K60" t="s">
-        <v>558</v>
+        <v>552</v>
+      </c>
+      <c r="L60" t="s">
+        <v>313</v>
       </c>
       <c r="M60" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O60" s="2">
-        <v>44276.7115625</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+        <v>44435.149004629631</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C61" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D61" t="s">
-        <v>289</v>
+        <v>286</v>
+      </c>
+      <c r="E61" t="s">
+        <v>303</v>
       </c>
       <c r="F61" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G61">
-        <v>178</v>
+        <v>3</v>
       </c>
       <c r="H61" s="2">
-        <v>44344.70616898148</v>
+        <v>44062.406840277778</v>
       </c>
       <c r="I61" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="J61" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="K61" t="s">
-        <v>559</v>
-      </c>
-      <c r="L61" t="s">
-        <v>317</v>
+        <v>553</v>
       </c>
       <c r="M61" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="N61">
         <v>6</v>
       </c>
       <c r="O61" s="2">
-        <v>44435.14900462963</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+        <v>44162.244733796288</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C62" t="s">
-        <v>233</v>
-      </c>
-      <c r="D62" t="s">
-        <v>290</v>
+        <v>231</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="E62" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="F62" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="G62">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="H62" s="2">
-        <v>44062.40684027778</v>
+        <v>44326.275324074071</v>
       </c>
       <c r="I62" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J62" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="K62" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="M62" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="N62">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O62" s="2">
-        <v>44162.24473379629</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+        <v>44238.201261574082</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C63" t="s">
-        <v>234</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E63" t="s">
+        <v>232</v>
+      </c>
+      <c r="D63" t="s">
+        <v>288</v>
+      </c>
+      <c r="F63" t="s">
         <v>320</v>
       </c>
-      <c r="F63" t="s">
-        <v>329</v>
-      </c>
       <c r="G63">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H63" s="2">
-        <v>44326.27532407407</v>
+        <v>43972.101620370369</v>
       </c>
       <c r="I63" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="J63" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="K63" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="M63" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="O63" s="2">
-        <v>44238.20126157408</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
+        <v>44101.645671296297</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C64" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D64" t="s">
-        <v>292</v>
+        <v>289</v>
+      </c>
+      <c r="E64" t="s">
+        <v>305</v>
       </c>
       <c r="F64" t="s">
         <v>324</v>
       </c>
       <c r="G64">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H64" s="2">
-        <v>43972.10162037037</v>
+        <v>45195.552986111114</v>
       </c>
       <c r="I64" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="J64" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="K64" t="s">
-        <v>562</v>
+        <v>556</v>
+      </c>
+      <c r="L64" t="s">
+        <v>578</v>
       </c>
       <c r="M64" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="N64">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="O64" s="2">
-        <v>44101.6456712963</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+        <v>45256.94327546296</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C65" t="s">
-        <v>236</v>
-      </c>
-      <c r="D65" t="s">
-        <v>293</v>
-      </c>
-      <c r="E65" t="s">
-        <v>309</v>
+        <v>234</v>
       </c>
       <c r="F65" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="H65" s="2">
-        <v>45195.55298611111</v>
+        <v>43679.364236111112</v>
       </c>
       <c r="I65" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="J65" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="K65" t="s">
-        <v>563</v>
-      </c>
-      <c r="L65" t="s">
-        <v>585</v>
+        <v>557</v>
       </c>
       <c r="M65" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="N65">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="O65" s="2">
-        <v>45256.94327546296</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
+        <v>43680.355312500003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C66" t="s">
-        <v>237</v>
+        <v>235</v>
+      </c>
+      <c r="D66" t="s">
+        <v>290</v>
       </c>
       <c r="F66" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="G66">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H66" s="2">
-        <v>43679.36423611111</v>
+        <v>44151.101793981477</v>
       </c>
       <c r="I66" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="J66" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="K66" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="M66" t="s">
-        <v>614</v>
+        <v>587</v>
       </c>
       <c r="N66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O66" s="2">
-        <v>43680.3553125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+        <v>44271.145115740743</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C67" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D67" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F67" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G67">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H67" s="2">
-        <v>44151.10179398148</v>
+        <v>43410.247245370367</v>
       </c>
       <c r="I67" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="J67" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="K67" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="M67" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O67" s="2">
-        <v>44271.14511574074</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+        <v>43450.802152777767</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C68" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D68" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F68" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G68">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H68" s="2">
-        <v>43410.24724537037</v>
+        <v>43838.941631944443</v>
       </c>
       <c r="I68" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="J68" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="K68" t="s">
-        <v>566</v>
+        <v>560</v>
+      </c>
+      <c r="L68" t="s">
+        <v>313</v>
       </c>
       <c r="M68" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="N68">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O68" s="2">
-        <v>43450.80215277777</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
+        <v>43984.815717592603</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C69" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D69" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F69" t="s">
         <v>323</v>
       </c>
       <c r="G69">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="H69" s="2">
-        <v>43838.94163194444</v>
+        <v>43949.914884259262</v>
       </c>
       <c r="I69" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J69" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="K69" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="L69" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M69" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="N69">
         <v>3</v>
       </c>
       <c r="O69" s="2">
-        <v>43984.8157175926</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
+        <v>43965.115671296298</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C70" t="s">
-        <v>241</v>
-      </c>
-      <c r="D70" t="s">
-        <v>297</v>
+        <v>239</v>
       </c>
       <c r="F70" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G70">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="H70" s="2">
-        <v>43949.91488425926</v>
+        <v>44578.118969907409</v>
       </c>
       <c r="I70" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="J70" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="K70" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="L70" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M70" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="N70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O70" s="2">
-        <v>43965.1156712963</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+        <v>44722.694814814808</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C71" t="s">
-        <v>242</v>
+        <v>240</v>
+      </c>
+      <c r="D71" t="s">
+        <v>294</v>
       </c>
       <c r="F71" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G71">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="H71" s="2">
-        <v>44578.11896990741</v>
+        <v>45580.018414351849</v>
       </c>
       <c r="I71" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="J71" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="K71" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="L71" t="s">
-        <v>317</v>
+        <v>579</v>
       </c>
       <c r="M71" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="N71">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="O71" s="2">
-        <v>44722.69481481481</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
+        <v>45624.697430555563</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C72" t="s">
-        <v>243</v>
-      </c>
-      <c r="D72" t="s">
-        <v>298</v>
+        <v>241</v>
+      </c>
+      <c r="E72" t="s">
+        <v>317</v>
       </c>
       <c r="F72" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G72">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="H72" s="2">
-        <v>45580.01841435185</v>
+        <v>44387.875833333332</v>
       </c>
       <c r="I72" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="J72" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="K72" t="s">
-        <v>570</v>
-      </c>
-      <c r="L72" t="s">
-        <v>586</v>
+        <v>564</v>
       </c>
       <c r="M72" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="N72">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="O72" s="2">
-        <v>45624.69743055556</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+        <v>44514.763043981482</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C73" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="D73" t="s">
+        <v>295</v>
       </c>
       <c r="E73" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F73" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>1282</v>
       </c>
       <c r="H73" s="2">
-        <v>44387.87583333333</v>
+        <v>45392.646168981482</v>
       </c>
       <c r="I73" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="J73" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="K73" t="s">
-        <v>571</v>
+        <v>565</v>
+      </c>
+      <c r="L73" t="s">
+        <v>580</v>
       </c>
       <c r="M73" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="N73">
-        <v>10</v>
+        <v>1070</v>
       </c>
       <c r="O73" s="2">
-        <v>44514.76304398148</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+        <v>45426.369305555563</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C74" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D74" t="s">
-        <v>299</v>
-      </c>
-      <c r="E74" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F74" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="G74">
-        <v>1282</v>
+        <v>3</v>
       </c>
       <c r="H74" s="2">
-        <v>45392.64616898148</v>
+        <v>44212.644629629627</v>
       </c>
       <c r="I74" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="J74" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="K74" t="s">
-        <v>572</v>
-      </c>
-      <c r="L74" t="s">
+        <v>566</v>
+      </c>
+      <c r="M74" t="s">
         <v>587</v>
       </c>
-      <c r="M74" t="s">
-        <v>615</v>
-      </c>
       <c r="N74">
-        <v>1070</v>
+        <v>5</v>
       </c>
       <c r="O74" s="2">
-        <v>45426.36930555556</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
+        <v>44258.693032407413</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C75" t="s">
-        <v>246</v>
-      </c>
-      <c r="D75" t="s">
-        <v>300</v>
+        <v>244</v>
+      </c>
+      <c r="E75" t="s">
+        <v>316</v>
       </c>
       <c r="F75" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H75" s="2">
-        <v>44212.64462962963</v>
+        <v>44067.844027777777</v>
       </c>
       <c r="I75" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="J75" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="K75" t="s">
-        <v>573</v>
+        <v>567</v>
+      </c>
+      <c r="L75" t="s">
+        <v>313</v>
       </c>
       <c r="M75" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="N75">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O75" s="2">
-        <v>44258.69303240741</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
+        <v>44227.264467592591</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C76" t="s">
-        <v>247</v>
-      </c>
-      <c r="E76" t="s">
-        <v>320</v>
+        <v>245</v>
+      </c>
+      <c r="D76" t="s">
+        <v>297</v>
       </c>
       <c r="F76" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="G76">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H76" s="2">
-        <v>44067.84402777778</v>
+        <v>43935.602893518517</v>
       </c>
       <c r="I76" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="J76" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="K76" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="L76" t="s">
-        <v>317</v>
+        <v>581</v>
       </c>
       <c r="M76" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="N76">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O76" s="2">
-        <v>44227.26446759259</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
+        <v>43990.06349537037</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C77" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D77" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F77" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
       <c r="H77" s="2">
-        <v>43935.60289351852</v>
+        <v>45341.477719907409</v>
       </c>
       <c r="I77" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J77" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="K77" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="L77" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="M77" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="N77">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="O77" s="2">
-        <v>43990.06349537037</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
+        <v>45105.923437500001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C78" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D78" t="s">
-        <v>302</v>
+        <v>299</v>
+      </c>
+      <c r="E78" t="s">
+        <v>316</v>
       </c>
       <c r="F78" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G78">
         <v>1</v>
       </c>
       <c r="H78" s="2">
-        <v>45341.47771990741</v>
+        <v>44193.090532407397</v>
       </c>
       <c r="I78" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="J78" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="K78" t="s">
-        <v>576</v>
-      </c>
-      <c r="L78" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
       <c r="M78" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N78">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="O78" s="2">
-        <v>45105.9234375</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
+        <v>44283.776516203703</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C79" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D79" t="s">
-        <v>303</v>
-      </c>
-      <c r="E79" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="F79" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G79">
+        <v>5</v>
+      </c>
+      <c r="H79" s="2">
+        <v>44533.815706018519</v>
+      </c>
+      <c r="I79" t="s">
+        <v>415</v>
+      </c>
+      <c r="J79" t="s">
+        <v>493</v>
+      </c>
+      <c r="K79" t="s">
+        <v>571</v>
+      </c>
+      <c r="M79" t="s">
+        <v>594</v>
+      </c>
+      <c r="N79">
         <v>1</v>
       </c>
-      <c r="H79" s="2">
-        <v>44193.0905324074</v>
-      </c>
-      <c r="I79" t="s">
-        <v>419</v>
-      </c>
-      <c r="J79" t="s">
-        <v>498</v>
-      </c>
-      <c r="K79" t="s">
-        <v>577</v>
-      </c>
-      <c r="M79" t="s">
-        <v>606</v>
-      </c>
-      <c r="N79">
-        <v>4</v>
-      </c>
       <c r="O79" s="2">
-        <v>44283.7765162037</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
-      <c r="A80" t="s">
-        <v>93</v>
-      </c>
-      <c r="B80" t="s">
-        <v>172</v>
-      </c>
-      <c r="C80" t="s">
-        <v>251</v>
-      </c>
-      <c r="D80" t="s">
-        <v>304</v>
-      </c>
-      <c r="F80" t="s">
-        <v>336</v>
-      </c>
-      <c r="G80">
-        <v>5</v>
-      </c>
-      <c r="H80" s="2">
-        <v>44533.81570601852</v>
-      </c>
-      <c r="I80" t="s">
-        <v>420</v>
-      </c>
-      <c r="J80" t="s">
-        <v>499</v>
-      </c>
-      <c r="K80" t="s">
-        <v>578</v>
-      </c>
-      <c r="M80" t="s">
-        <v>602</v>
-      </c>
-      <c r="N80">
-        <v>1</v>
-      </c>
-      <c r="O80" s="2">
-        <v>44548.62952546297</v>
+        <v>44548.629525462973</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D63" r:id="rId1"/>
+    <hyperlink ref="D62" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
